--- a/modified_example.xlsx
+++ b/modified_example.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>id</t>
   </si>
@@ -941,215 +941,7 @@
     <t>三能简便的要简便.$$① \frac{9}{17}+(\frac{5}{12}+ \frac{8}{17})  \\  = \frac{9}{17}+ \frac{8}{17}+ \frac{5}{12}  \\  =1+ \frac{5}{12}  \\  =1 \frac{5}{12} $$② ③$$ 8- \frac{7}{15}- \frac{8}{15}  \\  =8-(\frac{7}{15}+ \frac{8}{15})  \\  =8-  \\ =7$$$$ \frac{7}{6}- \frac{3}{8}+ \frac{1}{4}  \\ =$$④$$ \frac{13}{12}-(\frac{1}{12}+ \frac{1}{9}) $$ ⑤$$ \frac{19}{21}-(\frac{2}{7}- \frac{2}{21}) $$ ⑥$$ 2-(\frac{5}{7}- \frac{2}{5}) $$</t>
   </si>
   <si>
-    <t>根据你提供的信息，我们可以列出一个分数除法的计算式来解决这个问题。
-如果$$ \frac{3}{5} $$代表75千克，那么我们可以用75千克除以$$ \frac{3}{5} $$来找到单位“1”的量，也就是75千克对应的全部质量。
-计算式为：
-$$ 75 \div \frac{3}{5} = 75 \times \frac{5}{3} = 125 $$
-所以，单位“1”的量是125千克。这意味着75千克是125千克的$$ \frac{3}{5} $$。</t>
-  </si>
-  <si>
-    <t>根据已知条件，我们可以利用指数的运算性质来求解这个问题。具体来说，我们可以将 $10^{3m + 2n}$ 写成 $10^{3m} \times 10^{2n}$，然后分别利用 $10^m = 4$ 和 $10^n = 5$ 来计算。
-所以，$10^{3m + 2n} = (10^m)^3 \times (10^n)^2 = 4^3 \times 5^2 = 64 \times 25 = 1600$。
-因此，$10^{3m + 2n}$ 的值是 1600。</t>
-  </si>
-  <si>
-    <t>进制转换是将一个数从一个进制表示转换为另一个进制表示的过程。我们可以按照进制转换的规则来计算这两个表达式。
-对于十进制数 $(75)_{10}$ 转换为五进制数，我们可以逐步除以5，记录下每次的余数，直到商为0。余数从下往上排列，就是五进制数。具体步骤如下：
-$$
-75 \div 5 = 15 ... 0 \\
-15 \div 5 = 3 ... 0 \\
-3 \div 5 = 0 ... 3
-$$
-所以，$(75)_{10} = (300)_{5}$。
-对于十进制数 $(432)_{10}$ 转换为六进制数，我们同样逐步除以6，记录下每次的余数，直到商为0。余数从下往上排列，就是六进制数。具体步骤如下：
-$$
-432 \div 6 = 72 ... 0 \\
-72 \div 6 = 12 ... 0 \\
-12 \div 6 = 2 ... 0 \\
-2 \div 6 = 0 ... 2
-$$
-所以，$(432)_{10} = (2000)_{6}$。
-因此，转换后的结果是：
-$$
-(75)_{10} = (300)_{5} \\
-(432)_{10} = (2000)_{6}
-$$</t>
-  </si>
-  <si>
-    <t>这些方程看起来是关于分数的简单加减法。我们可以逐个解这些方程来找到x的值。
-对于第一个方程：
-$$ x + \frac{1}{8} = \frac{11}{12} $$
-我们可以通过从等式的两边减去$\frac{1}{8}$来解x：
-$$ x = \frac{11}{12} - \frac{1}{8} $$
-将分数转换为具有相同分母的形式，然后相减得到x的值。
-对于第二个方程：
-$$ \frac{10}{11} - x = \frac{2}{3} $$
-我们可以将x移到等式的一边，然后解出x：
-$$ x = \frac{10}{11} - \frac{2}{3} $$
-同样，我们需要将分数转换为具有相同分母的形式，然后相减得到x的值。
-对于第三个方程：
-$$ x - \frac{4}{5} = \frac{1}{2} $$
-我们可以将$\frac{4}{5}$加到等式的两边来解x：
-$$ x = \frac{1}{2} + \frac{4}{5} $$
-再次，我们需要将分数转换为具有相同分母的形式，然后相加得到x的值。
-现在，让我们计算出每个方程的解。</t>
-  </si>
-  <si>
-    <t>根据你给出的分数，我们可以列出以下的加减法算式：
-1. $\frac{5}{7} + \frac{3}{8}$
-2. $\frac{4}{8} - \frac{3}{7}$
-这些算式可以用来帮助理解分数的加减运算，但请注意，不同分母的分数相加减时，需要先通分，将分母变为相同的数，然后再进行计算。如果你需要帮助解决这些算式，我可以进一步指导你如何进行计算。</t>
-  </si>
-  <si>
-    <t>根据图像，我们可以看到函数在区间(a， $$ x_{1} $$)上导数为正，因此函数在这个区间上是单调递增的。同样，函数在区间($$ x_{2} $$， b)上导数也为正，所以函数在这个区间上也是单调递增的。由于这两个区间是连续的，没有重叠部分，所以函数的单调递增区间是这两个区间的并集，即(a， $$ x_{1} $$)和($$ x_{2} $$， b)。
-因此，正确答案是D. (a， $$ x_{1} $$)和($$ x_{2} $$， b)。</t>
-  </si>
-  <si>
-    <t>这些方程的解分别是：
-$$ x = \frac { 3 } { 4 } - \frac { 3 } { 7 } = \frac { 21 } { 28 } - \frac { 12 } { 28 } = \frac { 9 } { 28 } $$
-$$ x = \frac { 3 } { 8 } + \frac { 5 } { 12 } = \frac { 9 } { 24 } + \frac { 10 } { 24 } = \frac { 19 } { 24 } $$
-$$ x = 1 + \frac { 5 } { 6 } = 1 \frac { 5 } { 6 } $$
-$$ x = \frac { 3 } { 5 } - \frac { 5 } { 9 } = \frac { 27 } { 45 } - \frac { 25 } { 45 } = \frac { 2 } { 45 } $$
-这些解都是通过将方程中的未知数$x$移到等式的一边，然后进行分数的加减运算得到的。在解方程时，我们需要确保分数的分母相同，这样加减运算才会变得简单。如果分母不同，我们需要找到一个公共的分母，然后进行通分。</t>
-  </si>
-  <si>
-    <t>根据已知条件，点P(2，-1)是圆$( x - 1 ) ^ { 2 } + y ^ { 2 } = 25$的弦AB的中点。圆心C的坐标为(1,0)。因为弦AB的中点P与圆心C的连线垂直于弦AB，所以直线AB的斜率与直线CP的斜率互为负倒数。
-已知直线CP的斜率为-1，所以直线AB的斜率是1。根据点斜式，我们可以写出直线AB的方程为$y + 1 = x - 2$，化简后得到$x - y - 3 = 0$。
-因此，正确答案是A，即$x - y - 3 = 0$。</t>
-  </si>
-  <si>
-    <t>根据你提供的信息，甲每分钟录入90个字，乙每分钟录入100个字。两人同时工作，每分钟可以录入的总字数是90 + 100 = 190个字。
-要计算录完5700字的文件需要多长时间，我们可以将总字数除以每分钟录入的总字数：
-5700字 ÷ 190字/分钟 = 30分钟
-所以，甲、乙两名打字员同时录入这份5700字的文件需要30分钟。</t>
-  </si>
-  <si>
-    <t>要计算这桶油还可以注入多少千克油，我们首先需要知道油桶的体积，然后计算出桶内已经注入的油的体积，最后用油桶的体积减去已注入油的体积，再乘以每立方米油的重量。
-油桶底面周长是12.56分米，可以计算出底面半径是周长除以2π，即12.56 ÷ (2 × 3.14) = 2分米。油桶的高是1米，即10分米。所以油桶的体积V是底面积πr²乘以高h，即V = π × 2² × 10 = 40π立方分米。
-桶内已经注入了油的体积是油桶体积的3/4，即30π立方分米。所以还可以注入的油的体积是10π立方分米。
-每立方米油的重量是0.85吨，10π立方分米等于0.1π立方米，所以还可以注入的油的重量是0.1π × 0.85 = 0.085π吨，换算成千克是0.085π × 1000 = 85π千克。
-所以，这桶油还可以注入大约85π千克的油。</t>
-  </si>
-  <si>
-    <t>根据题目描述，一堆沙子原来有$$ \frac { 11 } { 6 } $$吨，第一次运走了$$ \frac { 5 } { 8 } $$吨，第二次又运走了$$ \frac { 5 } { 6 } $$吨。要计算还剩下多少吨，我们可以用减法来解决这个问题：
-$$ \frac { 11 } { 6 } - \frac { 5 } { 8 } - \frac { 5 } { 6 } $$
-通过计算，我们可以得出还剩下$$ \frac { 3 } { 8 } $$吨。这是通过将分数相减得到的结果，即：
-$$ \frac { 11 } { 6 } - \frac { 5 } { 6 } - \frac { 5 } { 8 } = 1 - \frac { 5 } { 8 } = \frac { 3 } { 8 } $$
-所以，沙子还剩下$$ \frac { 3 } { 8 } $$吨。</t>
-  </si>
-  <si>
-    <t>(8) 计算立方根、平方根、平方和绝对值，我们可以得到：
-$$ \sqrt [ 3 ] { - 27 } + \sqrt { 4 } + ( - 3 ) ^ { 2 } \times | - 2 | + ( - 1 ) ^ { 3 } $$
-$$ = - 3 + 2 + 9 \times 2 - 1 $$
-$$ = - 3 + 2 + 18 - 1 $$
-$$ = 16 $$
-所以，这个表达式的结果是16。</t>
-  </si>
-  <si>
-    <t>这是一道关于工程问题的数学题。根据题目，甲、乙两队合作15天可以完成整个工程，这意味着甲乙两队每天一起完成工程的$$ \frac{1}{15} $$。如果甲队工作5天，乙队工作3天，总共完成了工程的$$ \frac{7}{30} $$。我们可以设乙队单独完成工程需要x天，然后根据工作量来列方程求解。
-根据题目给出的解题过程，我们可以得出乙队单独完成全部工程需要20天。这个答案是通过解方程得到的，方程是根据甲乙两队各自的工作效率和完成的工作量来建立的。如果你对这个解题过程有任何疑问，我可以进一步解释。</t>
-  </si>
-  <si>
-    <t>根据题目描述，我们可以计算这个无盖盒子的表面积和体积。首先，我们需要将铁皮的尺寸转换为相同的单位，这里我们选择厘米（cm）作为单位。
-18dm = 180cm
-12dm = 120cm
-从四个角各切掉一个边长为20cm的正方形后，铁皮的尺寸变为：
-长 = 180cm - 20cm - 20cm = 140cm
-宽 = 120cm - 20cm - 20cm = 80cm
-盒子的高就是正方形边长，即20cm。
-盒子的表面积（不包括底面）是：
-表面积 = 2 × 长 × 高 + 2 × 宽 × 高
-表面积 = 2 × 140cm × 20cm + 2 × 80cm × 20cm
-表面积 = 5600cm² + 3200cm²
-表面积 = 8800cm²
-盒子的体积是：
-体积 = 长 × 宽 × 高
-体积 = 140cm × 80cm × 20cm
-体积 = 224000cm³
-所以，这个无盖盒子的表面积是8800平方厘米，体积是224000立方厘米。</t>
-  </si>
-  <si>
-    <t>9吨40千克可以转换为9.04吨，也可以转换为9040千克。这是因为1吨等于1000千克，所以40千克除以1000就等于0.04吨，加上原来的9吨，就得到了9.04吨。同样，9吨乘以1000再加上40千克，就得到了9040千克。所以，9吨40千克等于9.04吨，也等于9040千克。这是一个重量单位的转换问题，我们在日常生活中经常遇到这样的转换。如果你还有其他关于数学或者单位转换的问题，欢迎继续提问。</t>
-  </si>
-  <si>
-    <t>根据你给出的方程，我们知道它有两个相等的实数根。在二次方程中，如果判别式Δ=0，那么方程将有两个相等的实数根。对于方程（c-b）x^2 - 2（b-a）x + （a-b）=0，判别式Δ=[-2（b-a）]^2 - 4（c-b）（a-b）=0。
-通过化简这个判别式，我们可以得到（a-b）（a-c）=0。这意味着a-b=0或a-c=0，即a=b或a=c。这表明a、b、c中至少有两个边相等，因此这个三角形是等腰三角形。
-所以正确答案是C、等腰三角形。</t>
-  </si>
-  <si>
-    <t>(1)根据三角形面积公式，我们可以知道三角形的高可以通过面积和底边长来计算。已知△ABC的面积为16，BC=8，所以高AH可以通过面积公式S=1/2×底×高来求解。即16=1/2×8×AH，解得AH=4。
-(2)当△ABC所扫过的面积为32时，这个面积实际上是一个梯形ABFD的面积。梯形的面积公式是S=1/2×(上底+下底)×高。已知BC=8，所以BF=8+a，AD=8，所以梯形的面积S=1/2×(8+8+a)×4=32，解得a=4。
-(3)连接AE、AD，当AB=5，a=5时，我们可以看到AE=AD=5，因为是沿BC平移，所以DE=AB=5。根据三角形的定义，三边相等的三角形是等边三角形，所以△ADE是等边三角形。这是因为等腰三角形中，如果底边上的高也是底边的中垂线，那么这个三角形就是等边三角形。在本题中，由于AD=AE，所以AD=DE=AE，所以△ADE是等边三角形。</t>
-  </si>
-  <si>
-    <t>根据题目描述，我们可以推断出原来两校参加竞赛的人数是15的倍数，因为一小的汽车每车坐15人，而二小的汽车每车坐13人，当每校各增加1人时，两校所需汽车数量相同，说明原来一小的汽车全部坐满，二小的汽车也全部坐满，即人数是15的倍数，但比13的倍数多1人。
-根据倍数关系，我们可以得出6×15+1=7×13，所以每校原来参加人数为6×15=90人。当每校再增加1人时，二小又比一小多派一辆汽车，说明人数是13的倍数，但比15的倍数多2人。
-因此，最后两校共有90×2+4=184人参加竞赛。这是通过数学推理得出的结论。</t>
-  </si>
-  <si>
-    <t>一个直角三角形的面积是18平方厘米，这个信息不足以确定这个三角形是否是轴对称图形。轴对称图形意味着可以通过一条直线将图形分成两个完全相同的部分。直角三角形可以是等腰直角三角形，这种情况下它是轴对称的，但也可以是不等腰的，这种情况下它就不是轴对称的。因此，正确的填写是可能是。这取决于直角三角形的具体形状。</t>
-  </si>
-  <si>
-    <t>(1)在四边形ABCD中，根据四边形的内角和定理，我们可以得出∠ABC + ∠ADC = 360° - ∠A - ∠C。由于∠A = x°，∠C = y°，所以∠ABC + ∠ADC = 360° - x° - y° = (360 - x - y)°。
-(2)①当x = y时，由于∠A = ∠C，四边形ABCD的对角相等，所以四边形ABCD是平行四边形。平行四边形的对角线互相平分，所以BE与DF的位置关系是平行。
-②当y = 2x时，根据外角平分线的性质，我们可以得出∠DPB = 1/2(∠ADC - ∠ABC)。已知∠DPB = 10°，所以∠ADC - ∠ABC = 20°。又因为∠ADC = 2x°，∠ABC = x°，所以2x° - x° = 20°，解得x = 20°，所以y = 2x = 40°。
-(3)如图②，∠ABC的平分线与∠ADC的外角平分线交于点Q，根据角平分线的性质，我们可以得出∠Q = 1/2(∠ABC + ∠ADC - 180°)。由于∠ABC + ∠ADC = (360 - x - y)°，所以∠Q = 1/2[(360 - x - y)° - 180°] = (90 - 1/2(x + y))°。
-希望这些解答能帮助你理解这个问题。如果你还有其他问题，欢迎继续提问。</t>
-  </si>
-  <si>
-    <t>妈妈给你10元钱去买3千克白菜，每千克白菜2元。所以，3千克白菜的总价是3千克乘以2元，等于6元。用10元减去6元，就是剩下的钱数。所以，你还剩下4元钱。这是通过简单的数学计算得出的结果。如果你在学习数学，这样的问题可以帮助你练习基本的加减法和单位换算。</t>
-  </si>
-  <si>
-    <t>根据斐波那契数列的规律，我们可以知道，登上第10级楼梯的不同走法共有89种。这是因为每一步只能跨上一级或两级，所以每一步的选择都会影响到总的走法数。这个问题可以通过递推法或者分类法来解决，最终得出的答案是C，即89种不同的走法。</t>
-  </si>
-  <si>
-    <t>(1)步测一段距离，每步的平均长度和走的步数成反比例。因为总距离是一定的，每步的平均长度越长，走的步数就越少，反之亦然。
-(2)一台压路机滚筒滚动的转数和压路的面积成正比例。因为压路面积是滚筒转数和滚筒宽度的乘积，所以当滚筒宽度一定时，转数和面积的比值是一定的。
-(3)一台收割机每小时收割麦子的面积一定，麦地面积和收割时间成正比例。因为收割机的效率是一定的，所以麦地面积越大，需要的收割时间就越长，它们的比值是一定的。
-(4)图书室的藏书数量一定，每天借出和还回的书的本数既不成正比例也不成反比例。因为借出和还回的书的本数之和是一定的，但它们的比值并不是一定的。
-(5)已知 \( xy = 10 \)，x和y成反比例。因为它们的乘积是一定的，所以当x增大时，y必须减小，反之亦然。</t>
-  </si>
-  <si>
-    <t>根据已知条件和三角形的性质，我们可以分析如下：
-(1) 因为$$ \angle 1 = \angle 2 $$，所以AD是$$ \Delta A B C $$的角平分线，因为角平分线的定义是将一个角分成两个相等的角的线段。所以这个判断是正确的。
-(2) BE是$$ \Delta A B D $$的AD边上的中线，这个判断是不正确的，因为题目中并没有给出足够的信息来证明BE是中线，只是说G是AD的中点，而BG延长线交AC于点E，这并不意味着BE是中线。
-(3) CH为$$ \Delta A C D $$边AD上的中线，这个判断是不正确的，因为题目中并没有给出足够的信息来证明CH是中线，只是说CF垂直于AD于点H，这并不意味着CH是中线。
-(4) AH是$$ \Delta A C F $$的角平分线和高线，这个判断是正确的，因为CF垂直于AD，所以AH是高线；同时，由于$$ \angle 1 = \angle 2 $$，所以AH也是角平分线。
-所以，正确的判断是(1)和(4)。</t>
-  </si>
-  <si>
-    <t>根据题目描述，加工零件的目的是为了配成尽可能多的成套产品。甲、乙、丙三种零件分别取3个、2个、1个才能配成一套，这意味着加工零件时需要考虑如何分配时间以最大化成套产品的数量。
-设10天内加工了x套产品，那么甲种零件需要加工3x个，乙种零件需要加工2x个，丙种零件需要加工x个。根据题目给出的每天加工零件的数量，我们可以列出方程来求解x的值。
-设甲种产品加工了y天，乙种产品加工了z天，丙种产品加工了w天，那么有以下关系：
-1. $y + z + w = 10$ （总天数）
-2. $3x = 12y$ （甲种零件加工天数与成套产品数量的关系）
-3. $2x = 10z$ （乙种零件加工天数与成套产品数量的关系）
-4. $x = 20w$ （丙种零件加工天数与成套产品数量的关系）
-通过解这个方程组，我们可以得到甲、乙、丙三种产品各应加工的天数。根据已知的解法，甲种产品应加工5天，乙种产品应加工4天，丙种产品应加工1天。这样可以在10天内加工出最多的成套产品。</t>
-  </si>
-  <si>
-    <t>根据题意，我们可以设长方体的长、宽、高上分别有两面有红色的小立方体为x、y、z块。根据题目给出的信息，我们可以列出以下两个方程：
-1. 两面有红色的小立方体的总数是40，即2x + 2y + 2z = 40。
-2. 一面有红色的小立方体的总数是66，即4x + 2y + 2z = 66。
-通过解这两个方程，我们可以得到x、y、z的值。然后，根据长方体的体积公式V = 长 × 宽 × 高，我们可以计算出长方体的体积。根据解方程得到的x、y、z的值，长方体的体积是150。
-所以，这个长方体的体积是150。这个问题的关键在于理解染色立方体与长方体的边长之间的关系，并通过解方程来找到合适的整数解。</t>
-  </si>
-  <si>
-    <t>根据题目中的信息，五年级共有学生200人，80名女生去跳绳，那么剩下的男生人数就是200人减去80人，即120人。男生分成4组去打乒乓球，所以男生平均每组的人数就是120人除以4组，即30人。所以男生平均每组有30人。</t>
-  </si>
-  <si>
-    <t>根据比例知识，我们可以计算出小红如果想在8天内读完这本文学名著，每天应该读多少页。因为书的总页数是不变的，所以每天读的页数和需要的天数成反比。
-设如果小红想在8天内读完，平均每天应该读 \( x \) 页，那么可以列出比例关系：
-\[ 40 \text{页/天} ： 10 \text{天} = x \text{页/天} ： 8 \text{天} \]
-通过交叉相乘，我们可以解出 \( x \)：
-\[ 40 \times 8 = 10 \times x \]
-\[ x = \frac{40 \times 8}{10} \]
-\[ x = \frac{320}{10} \]
-\[ x = 32 \]
-所以，如果小红想在8天内读完，平均每天应该读32页。</t>
-  </si>
-  <si>
-    <t/>
+    <t>9999</t>
   </si>
 </sst>
 </file>
@@ -2387,9 +2179,6 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>304</v>
-      </c>
     </row>
     <row r="3" spans="1:2" ht="51">
       <c r="A3" s="4">
@@ -2398,9 +2187,6 @@
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="4" spans="1:2" ht="51">
       <c r="A4" s="4">
@@ -2409,9 +2195,6 @@
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>306</v>
-      </c>
     </row>
     <row r="5" spans="1:2" ht="84">
       <c r="A5" s="4">
@@ -2420,9 +2203,6 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>307</v>
-      </c>
     </row>
     <row r="6" spans="1:2" ht="84">
       <c r="A6" s="4">
@@ -2431,9 +2211,6 @@
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>308</v>
-      </c>
     </row>
     <row r="7" spans="1:2" ht="152">
       <c r="A7" s="4">
@@ -2442,9 +2219,6 @@
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>309</v>
-      </c>
     </row>
     <row r="8" spans="1:2" ht="118">
       <c r="A8" s="4">
@@ -2453,9 +2227,6 @@
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>310</v>
-      </c>
     </row>
     <row r="9" spans="1:2" ht="118">
       <c r="A9" s="4">
@@ -2464,9 +2235,6 @@
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>311</v>
-      </c>
     </row>
     <row r="10" spans="1:2" ht="118">
       <c r="A10" s="4">
@@ -2475,9 +2243,6 @@
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>312</v>
-      </c>
     </row>
     <row r="11" spans="1:2" ht="101">
       <c r="A11" s="4">
@@ -2486,9 +2251,6 @@
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="12" spans="1:2" ht="84">
       <c r="A12" s="4">
@@ -2497,9 +2259,6 @@
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
-        <v>314</v>
-      </c>
     </row>
     <row r="13" spans="1:2" ht="68">
       <c r="A13" s="4">
@@ -2508,9 +2267,6 @@
       <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>315</v>
-      </c>
     </row>
     <row r="14" spans="1:2" ht="101">
       <c r="A14" s="4">
@@ -2519,9 +2275,6 @@
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
-        <v>316</v>
-      </c>
     </row>
     <row r="15" spans="1:2" ht="118">
       <c r="A15" s="4">
@@ -2530,9 +2283,6 @@
       <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
-        <v>317</v>
-      </c>
     </row>
     <row r="16" spans="1:2" ht="51">
       <c r="A16" s="4">
@@ -2541,9 +2291,6 @@
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
-        <v>318</v>
-      </c>
     </row>
     <row r="17" spans="1:2" ht="135">
       <c r="A17" s="4">
@@ -2552,9 +2299,6 @@
       <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="18" spans="1:2" ht="219">
       <c r="A18" s="4">
@@ -2563,9 +2307,6 @@
       <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
-        <v>320</v>
-      </c>
     </row>
     <row r="19" spans="1:2" ht="219">
       <c r="A19" s="4">
@@ -2574,9 +2315,6 @@
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
-        <v>321</v>
-      </c>
     </row>
     <row r="20" spans="1:2" ht="68">
       <c r="A20" s="4">
@@ -2585,9 +2323,6 @@
       <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
-        <v>322</v>
-      </c>
     </row>
     <row r="21" spans="1:2" ht="320">
       <c r="A21" s="4">
@@ -2596,9 +2331,6 @@
       <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="s">
-        <v>323</v>
-      </c>
     </row>
     <row r="22" spans="1:2" ht="51">
       <c r="A22" s="4">
@@ -2607,9 +2339,6 @@
       <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
-        <v>324</v>
-      </c>
     </row>
     <row r="23" spans="1:2" ht="84">
       <c r="A23" s="4">
@@ -2618,9 +2347,6 @@
       <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C23" t="s">
-        <v>325</v>
-      </c>
     </row>
     <row r="24" spans="1:2" ht="202">
       <c r="A24" s="4">
@@ -2629,9 +2355,6 @@
       <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
-        <v>326</v>
-      </c>
     </row>
     <row r="25" spans="1:2" ht="236">
       <c r="A25" s="4">
@@ -2640,9 +2363,6 @@
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="26" spans="1:2" ht="135">
       <c r="A26" s="4">
@@ -2651,9 +2371,6 @@
       <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C26" t="s">
-        <v>328</v>
-      </c>
     </row>
     <row r="27" spans="1:2" ht="135">
       <c r="A27" s="4">
@@ -2662,9 +2379,6 @@
       <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C27" t="s">
-        <v>329</v>
-      </c>
     </row>
     <row r="28" spans="1:2" ht="84">
       <c r="A28" s="4">
@@ -2673,9 +2387,6 @@
       <c r="B28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C28" t="s">
-        <v>330</v>
-      </c>
     </row>
     <row r="29" spans="1:2" ht="84">
       <c r="A29" s="4">
@@ -2684,9 +2395,6 @@
       <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C29" t="s">
-        <v>331</v>
-      </c>
     </row>
     <row r="30" spans="1:2" ht="51">
       <c r="A30" s="4">
@@ -2695,9 +2403,6 @@
       <c r="B30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C30" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="31" spans="1:2" ht="118">
       <c r="A31" s="4">
@@ -2706,9 +2411,6 @@
       <c r="B31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C31" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="32" spans="1:2" ht="152">
       <c r="A32" s="4">
@@ -2717,9 +2419,6 @@
       <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C32" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="33" spans="1:2" ht="51">
       <c r="A33" s="4">
@@ -2728,9 +2427,6 @@
       <c r="B33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C33" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="34" spans="1:2" ht="34">
       <c r="A34" s="4">
@@ -2739,9 +2435,6 @@
       <c r="B34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="35" spans="1:2" ht="51">
       <c r="A35" s="4">
@@ -2750,9 +2443,6 @@
       <c r="B35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C35" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="36" spans="1:2" ht="68">
       <c r="A36" s="4">
@@ -2761,9 +2451,6 @@
       <c r="B36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C36" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="37" spans="1:2" ht="51">
       <c r="A37" s="4">
@@ -2772,9 +2459,6 @@
       <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C37" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="38" spans="1:2" ht="135">
       <c r="A38" s="4">
@@ -2783,9 +2467,6 @@
       <c r="B38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C38" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="39" spans="1:2" ht="68">
       <c r="A39" s="4">
@@ -2794,9 +2475,6 @@
       <c r="B39" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C39" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="40" spans="1:2" ht="118">
       <c r="A40" s="4">
@@ -2805,9 +2483,6 @@
       <c r="B40" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C40" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="41" spans="1:2" ht="118">
       <c r="A41" s="4">
@@ -2816,9 +2491,6 @@
       <c r="B41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C41" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="42" spans="1:2" ht="17">
       <c r="A42" s="4">
@@ -2827,9 +2499,6 @@
       <c r="B42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C42" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="43" spans="1:2" ht="135">
       <c r="A43" s="4">
@@ -2838,9 +2507,6 @@
       <c r="B43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C43" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="44" spans="1:2" ht="51">
       <c r="A44" s="4">
@@ -2849,9 +2515,6 @@
       <c r="B44" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C44" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="45" spans="1:2" ht="51">
       <c r="A45" s="4">
@@ -2860,9 +2523,6 @@
       <c r="B45" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C45" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="46" spans="1:2" ht="353">
       <c r="A46" s="4">
@@ -2871,9 +2531,6 @@
       <c r="B46" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C46" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="47" spans="1:2" ht="51">
       <c r="A47" s="4">
@@ -2882,9 +2539,6 @@
       <c r="B47" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C47" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="48" spans="1:2" ht="118">
       <c r="A48" s="4">
@@ -2893,9 +2547,6 @@
       <c r="B48" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C48" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="49" spans="1:2" ht="51">
       <c r="A49" s="4">
@@ -2904,9 +2555,6 @@
       <c r="B49" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C49" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="50" spans="1:2" ht="51">
       <c r="A50" s="4">
@@ -2915,9 +2563,6 @@
       <c r="B50" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C50" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="51" spans="1:2" ht="168">
       <c r="A51" s="4">
@@ -2926,9 +2571,6 @@
       <c r="B51" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C51" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="52" spans="1:2" ht="34">
       <c r="A52" s="4">
@@ -2937,9 +2579,6 @@
       <c r="B52" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C52" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="53" spans="1:2" ht="152">
       <c r="A53" s="4">
@@ -2948,9 +2587,6 @@
       <c r="B53" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C53" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="54" spans="1:2" ht="51">
       <c r="A54" s="4">
@@ -2959,9 +2595,6 @@
       <c r="B54" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C54" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="55" spans="1:2" ht="118">
       <c r="A55" s="4">
@@ -2970,9 +2603,6 @@
       <c r="B55" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C55" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="56" spans="1:2" ht="68">
       <c r="A56" s="4">
@@ -2981,9 +2611,6 @@
       <c r="B56" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C56" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="57" spans="1:2" ht="84">
       <c r="A57" s="4">
@@ -2992,9 +2619,6 @@
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C57" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="58" spans="1:2" ht="118">
       <c r="A58" s="4">
@@ -3003,9 +2627,6 @@
       <c r="B58" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C58" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="59" spans="1:2" ht="118">
       <c r="A59" s="4">
@@ -3014,9 +2635,6 @@
       <c r="B59" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C59" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="60" spans="1:2" ht="101">
       <c r="A60" s="4">
@@ -3026,7 +2644,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="101">
@@ -3037,7 +2655,7 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="84">
@@ -3048,7 +2666,7 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="185">
@@ -3059,7 +2677,7 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="51">
@@ -3070,7 +2688,7 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="236">
@@ -3081,7 +2699,7 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="34">
@@ -3091,9 +2709,6 @@
       <c r="B66" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C66" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="67" spans="1:2" ht="68">
       <c r="A67" s="4">
@@ -3102,9 +2717,6 @@
       <c r="B67" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C67" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="68" spans="1:2" ht="118">
       <c r="A68" s="4">
@@ -3113,9 +2725,6 @@
       <c r="B68" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C68" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="69" spans="1:2" ht="118">
       <c r="A69" s="4">
@@ -3124,9 +2733,6 @@
       <c r="B69" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C69" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="70" spans="1:2" ht="152">
       <c r="A70" s="4">
@@ -3135,9 +2741,6 @@
       <c r="B70" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C70" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="71" spans="1:2" ht="51">
       <c r="A71" s="4">
@@ -3146,9 +2749,6 @@
       <c r="B71" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C71" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="72" spans="1:2" ht="135">
       <c r="A72" s="4">
@@ -3157,9 +2757,6 @@
       <c r="B72" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C72" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="73" spans="1:2" ht="34">
       <c r="A73" s="4">
@@ -3168,9 +2765,6 @@
       <c r="B73" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C73" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="74" spans="1:2" ht="68">
       <c r="A74" s="4">
@@ -3179,9 +2773,6 @@
       <c r="B74" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C74" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="75" spans="1:2" ht="84">
       <c r="A75" s="4">
@@ -3190,9 +2781,6 @@
       <c r="B75" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C75" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="76" spans="1:2" ht="118">
       <c r="A76" s="4">
@@ -3201,9 +2789,6 @@
       <c r="B76" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C76" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="77" spans="1:2" ht="51">
       <c r="A77" s="4">
@@ -3212,9 +2797,6 @@
       <c r="B77" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C77" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="78" spans="1:2" ht="51">
       <c r="A78" s="4">
@@ -3223,9 +2805,6 @@
       <c r="B78" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C78" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="79" spans="1:2" ht="51">
       <c r="A79" s="4">
@@ -3234,9 +2813,6 @@
       <c r="B79" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C79" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="80" spans="1:2" ht="118">
       <c r="A80" s="4">
@@ -3245,9 +2821,6 @@
       <c r="B80" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C80" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="81" spans="1:2" ht="135">
       <c r="A81" s="4">
@@ -3256,9 +2829,6 @@
       <c r="B81" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C81" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="82" spans="1:2" ht="84">
       <c r="A82" s="4">
@@ -3267,9 +2837,6 @@
       <c r="B82" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C82" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="83" spans="1:2" ht="101">
       <c r="A83" s="4">
@@ -3278,9 +2845,6 @@
       <c r="B83" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C83" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="84" spans="1:2" ht="353">
       <c r="A84" s="4">
@@ -3289,9 +2853,6 @@
       <c r="B84" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C84" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="85" spans="1:2" ht="68">
       <c r="A85" s="4">
@@ -3300,9 +2861,6 @@
       <c r="B85" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C85" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="86" spans="1:2" ht="101">
       <c r="A86" s="4">
@@ -3311,9 +2869,6 @@
       <c r="B86" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C86" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="87" spans="1:2" ht="168">
       <c r="A87" s="4">
@@ -3322,9 +2877,6 @@
       <c r="B87" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C87" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="88" spans="1:2" ht="202">
       <c r="A88" s="4">
@@ -3333,9 +2885,6 @@
       <c r="B88" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C88" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="89" spans="1:2" ht="34">
       <c r="A89" s="4">
@@ -3344,9 +2893,6 @@
       <c r="B89" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C89" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="90" spans="1:2" ht="34">
       <c r="A90" s="4">
@@ -3355,9 +2901,6 @@
       <c r="B90" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C90" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="91" spans="1:2" ht="101">
       <c r="A91" s="4">
@@ -3366,9 +2909,6 @@
       <c r="B91" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C91" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="92" spans="1:2" ht="118">
       <c r="A92" s="4">
@@ -3377,9 +2917,6 @@
       <c r="B92" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C92" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="93" spans="1:2" ht="51">
       <c r="A93" s="4">
@@ -3388,9 +2925,6 @@
       <c r="B93" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C93" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="94" spans="1:2" ht="34">
       <c r="A94" s="4">
@@ -3399,9 +2933,6 @@
       <c r="B94" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C94" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="95" spans="1:2" ht="34">
       <c r="A95" s="4">
@@ -3410,9 +2941,6 @@
       <c r="B95" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C95" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="96" spans="1:2" ht="51">
       <c r="A96" s="4">
@@ -3421,9 +2949,6 @@
       <c r="B96" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C96" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="97" spans="1:2" ht="51">
       <c r="A97" s="4">
@@ -3432,9 +2957,6 @@
       <c r="B97" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C97" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="98" spans="1:2" ht="68">
       <c r="A98" s="4">
@@ -3443,9 +2965,6 @@
       <c r="B98" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C98" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="99" spans="1:2" ht="370">
       <c r="A99" s="4">
@@ -3454,9 +2973,6 @@
       <c r="B99" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C99" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="100" spans="1:2" ht="68">
       <c r="A100" s="4">
@@ -3465,9 +2981,6 @@
       <c r="B100" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C100" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="101" spans="1:2" ht="118">
       <c r="A101" s="4">
@@ -3476,9 +2989,6 @@
       <c r="B101" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C101" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="102" spans="1:2" ht="118">
       <c r="A102" s="4">
@@ -3487,9 +2997,6 @@
       <c r="B102" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C102" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="103" spans="1:2" ht="168">
       <c r="A103" s="4">
@@ -3498,9 +3005,6 @@
       <c r="B103" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C103" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="104" spans="1:2" ht="84">
       <c r="A104" s="4">
@@ -3509,9 +3013,6 @@
       <c r="B104" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C104" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="105" spans="1:2" ht="51">
       <c r="A105" s="4">
@@ -3520,9 +3021,6 @@
       <c r="B105" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C105" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="106" spans="1:2" ht="409.5">
       <c r="A106" s="4">
@@ -3531,9 +3029,6 @@
       <c r="B106" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C106" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="107" spans="1:2" ht="68">
       <c r="A107" s="4">
@@ -3542,9 +3037,6 @@
       <c r="B107" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C107" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="108" spans="1:2" ht="68">
       <c r="A108" s="4">
@@ -3553,9 +3045,6 @@
       <c r="B108" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C108" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="109" spans="1:2" ht="51">
       <c r="A109" s="4">
@@ -3564,9 +3053,6 @@
       <c r="B109" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C109" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="110" spans="1:2" ht="101">
       <c r="A110" s="4">
@@ -3575,9 +3061,6 @@
       <c r="B110" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C110" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="111" spans="1:2" ht="51">
       <c r="A111" s="4">
@@ -3586,9 +3069,6 @@
       <c r="B111" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C111" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="112" spans="1:2" ht="51">
       <c r="A112" s="4">
@@ -3597,9 +3077,6 @@
       <c r="B112" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C112" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="113" spans="1:2" ht="68">
       <c r="A113" s="4">
@@ -3608,9 +3085,6 @@
       <c r="B113" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C113" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="114" spans="1:2" ht="34">
       <c r="A114" s="4">
@@ -3619,9 +3093,6 @@
       <c r="B114" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C114" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="115" spans="1:2" ht="68">
       <c r="A115" s="4">
@@ -3630,9 +3101,6 @@
       <c r="B115" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C115" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="116" spans="1:2" ht="118">
       <c r="A116" s="4">
@@ -3641,9 +3109,6 @@
       <c r="B116" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C116" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="117" spans="1:2" ht="101">
       <c r="A117" s="4">
@@ -3652,9 +3117,6 @@
       <c r="B117" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C117" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="118" spans="1:2" ht="101">
       <c r="A118" s="4">
@@ -3663,9 +3125,6 @@
       <c r="B118" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C118" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="119" spans="1:2" ht="51">
       <c r="A119" s="4">
@@ -3674,9 +3133,6 @@
       <c r="B119" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C119" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="120" spans="1:2" ht="168">
       <c r="A120" s="4">
@@ -3685,9 +3141,6 @@
       <c r="B120" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C120" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="121" spans="1:2" ht="84">
       <c r="A121" s="4">
@@ -3696,9 +3149,6 @@
       <c r="B121" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C121" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="122" spans="1:2" ht="51">
       <c r="A122" s="4">
@@ -3707,9 +3157,6 @@
       <c r="B122" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C122" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="123" spans="1:2" ht="84">
       <c r="A123" s="4">
@@ -3718,9 +3165,6 @@
       <c r="B123" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C123" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="124" spans="1:2" ht="101">
       <c r="A124" s="4">
@@ -3729,9 +3173,6 @@
       <c r="B124" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C124" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="125" spans="1:2" ht="353">
       <c r="A125" s="4">
@@ -3740,9 +3181,6 @@
       <c r="B125" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C125" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="126" spans="1:2" ht="118">
       <c r="A126" s="4">
@@ -3751,9 +3189,6 @@
       <c r="B126" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C126" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="127" spans="1:2" ht="68">
       <c r="A127" s="4">
@@ -3762,9 +3197,6 @@
       <c r="B127" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C127" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="128" spans="1:2" ht="101">
       <c r="A128" s="4">
@@ -3773,9 +3205,6 @@
       <c r="B128" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C128" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="129" spans="1:2" ht="84">
       <c r="A129" s="4">
@@ -3784,9 +3213,6 @@
       <c r="B129" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C129" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="130" spans="1:2" ht="135">
       <c r="A130" s="4">
@@ -3795,9 +3221,6 @@
       <c r="B130" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C130" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="131" spans="1:2" ht="68">
       <c r="A131" s="4">
@@ -3806,9 +3229,6 @@
       <c r="B131" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C131" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="132" spans="1:2" ht="152">
       <c r="A132" s="4">
@@ -3817,9 +3237,6 @@
       <c r="B132" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C132" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="133" spans="1:2" ht="152">
       <c r="A133" s="4">
@@ -3828,9 +3245,6 @@
       <c r="B133" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C133" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="134" spans="1:2" ht="118">
       <c r="A134" s="4">
@@ -3839,9 +3253,6 @@
       <c r="B134" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C134" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="135" spans="1:2" ht="84">
       <c r="A135" s="4">
@@ -3850,9 +3261,6 @@
       <c r="B135" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C135" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="136" spans="1:2" ht="68">
       <c r="A136" s="4">
@@ -3861,9 +3269,6 @@
       <c r="B136" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C136" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="137" spans="1:2" ht="34">
       <c r="A137" s="4">
@@ -3872,9 +3277,6 @@
       <c r="B137" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C137" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="138" spans="1:2" ht="68">
       <c r="A138" s="4">
@@ -3883,9 +3285,6 @@
       <c r="B138" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C138" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="139" spans="1:2" ht="68">
       <c r="A139" s="4">
@@ -3894,9 +3293,6 @@
       <c r="B139" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C139" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="140" spans="1:2" ht="135">
       <c r="A140" s="4">
@@ -3905,9 +3301,6 @@
       <c r="B140" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C140" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="141" spans="1:2" ht="84">
       <c r="A141" s="4">
@@ -3916,9 +3309,6 @@
       <c r="B141" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C141" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="142" spans="1:2" ht="51">
       <c r="A142" s="4">
@@ -3927,9 +3317,6 @@
       <c r="B142" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C142" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="143" spans="1:2" ht="320">
       <c r="A143" s="4">
@@ -3938,9 +3325,6 @@
       <c r="B143" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C143" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="144" spans="1:2" ht="101">
       <c r="A144" s="4">
@@ -3949,9 +3333,6 @@
       <c r="B144" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C144" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="145" spans="1:2" ht="135">
       <c r="A145" s="4">
@@ -3960,9 +3341,6 @@
       <c r="B145" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C145" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="146" spans="1:2" ht="202">
       <c r="A146" s="4">
@@ -3971,9 +3349,6 @@
       <c r="B146" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C146" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="147" spans="1:2" ht="252">
       <c r="A147" s="4">
@@ -3982,9 +3357,6 @@
       <c r="B147" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C147" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="148" spans="1:2" ht="152">
       <c r="A148" s="4">
@@ -3993,9 +3365,6 @@
       <c r="B148" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C148" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="149" spans="1:2" ht="101">
       <c r="A149" s="4">
@@ -4004,9 +3373,6 @@
       <c r="B149" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C149" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="150" spans="1:2" ht="101">
       <c r="A150" s="4">
@@ -4015,9 +3381,6 @@
       <c r="B150" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C150" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="151" spans="1:2" ht="152">
       <c r="A151" s="4">
@@ -4026,9 +3389,6 @@
       <c r="B151" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C151" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="152" spans="1:2" ht="68">
       <c r="A152" s="4">
@@ -4037,9 +3397,6 @@
       <c r="B152" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C152" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="153" spans="1:2" ht="34">
       <c r="A153" s="4">
@@ -4048,9 +3405,6 @@
       <c r="B153" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C153" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="154" spans="1:2" ht="17">
       <c r="A154" s="4">
@@ -4059,9 +3413,6 @@
       <c r="B154" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C154" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="155" spans="1:2" ht="34">
       <c r="A155" s="4">
@@ -4070,9 +3421,6 @@
       <c r="B155" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C155" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="156" spans="1:2" ht="34">
       <c r="A156" s="4">
@@ -4081,9 +3429,6 @@
       <c r="B156" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C156" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="157" spans="1:2" ht="118">
       <c r="A157" s="4">
@@ -4092,9 +3437,6 @@
       <c r="B157" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C157" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="158" spans="1:2" ht="135">
       <c r="A158" s="4">
@@ -4103,9 +3445,6 @@
       <c r="B158" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C158" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="159" spans="1:2" ht="68">
       <c r="A159" s="4">
@@ -4114,9 +3453,6 @@
       <c r="B159" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C159" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="160" spans="1:2" ht="68">
       <c r="A160" s="4">
@@ -4125,9 +3461,6 @@
       <c r="B160" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C160" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="161" spans="1:2" ht="84">
       <c r="A161" s="4">
@@ -4136,9 +3469,6 @@
       <c r="B161" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C161" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="162" spans="1:2" ht="185">
       <c r="A162" s="4">
@@ -4147,9 +3477,6 @@
       <c r="B162" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C162" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="163" spans="1:2" ht="84">
       <c r="A163" s="4">
@@ -4158,9 +3485,6 @@
       <c r="B163" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C163" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="164" spans="1:2" ht="202">
       <c r="A164" s="4">
@@ -4169,9 +3493,6 @@
       <c r="B164" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C164" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="165" spans="1:2" ht="219">
       <c r="A165" s="4">
@@ -4180,9 +3501,6 @@
       <c r="B165" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C165" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="166" spans="1:2" ht="17">
       <c r="A166" s="4">
@@ -4191,9 +3509,6 @@
       <c r="B166" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C166" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="167" spans="1:2" ht="219">
       <c r="A167" s="4">
@@ -4202,9 +3517,6 @@
       <c r="B167" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C167" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="168" spans="1:2" ht="51">
       <c r="A168" s="4">
@@ -4213,9 +3525,6 @@
       <c r="B168" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C168" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="169" spans="1:2" ht="152">
       <c r="A169" s="4">
@@ -4224,9 +3533,6 @@
       <c r="B169" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C169" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="170" spans="1:2" ht="84">
       <c r="A170" s="4">
@@ -4235,9 +3541,6 @@
       <c r="B170" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C170" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="171" spans="1:2" ht="101">
       <c r="A171" s="4">
@@ -4246,9 +3549,6 @@
       <c r="B171" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C171" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="172" spans="1:2" ht="135">
       <c r="A172" s="4">
@@ -4257,9 +3557,6 @@
       <c r="B172" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C172" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="173" spans="1:2" ht="152">
       <c r="A173" s="4">
@@ -4268,9 +3565,6 @@
       <c r="B173" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C173" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="174" spans="1:2" ht="84">
       <c r="A174" s="4">
@@ -4279,9 +3573,6 @@
       <c r="B174" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C174" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="175" spans="1:2" ht="68">
       <c r="A175" s="4">
@@ -4290,9 +3581,6 @@
       <c r="B175" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C175" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="176" spans="1:2" ht="236">
       <c r="A176" s="4">
@@ -4301,9 +3589,6 @@
       <c r="B176" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C176" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="177" spans="1:2" ht="219">
       <c r="A177" s="4">
@@ -4312,9 +3597,6 @@
       <c r="B177" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C177" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="178" spans="1:2" ht="353">
       <c r="A178" s="4">
@@ -4323,9 +3605,6 @@
       <c r="B178" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C178" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="179" spans="1:2" ht="34">
       <c r="A179" s="4">
@@ -4334,9 +3613,6 @@
       <c r="B179" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C179" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="180" spans="1:2" ht="51">
       <c r="A180" s="4">
@@ -4345,9 +3621,6 @@
       <c r="B180" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C180" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="181" spans="1:2" ht="84">
       <c r="A181" s="4">
@@ -4356,9 +3629,6 @@
       <c r="B181" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C181" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="182" spans="1:2" ht="101">
       <c r="A182" s="4">
@@ -4367,9 +3637,6 @@
       <c r="B182" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C182" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="183" spans="1:2" ht="84">
       <c r="A183" s="4">
@@ -4378,9 +3645,6 @@
       <c r="B183" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C183" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="184" spans="1:2" ht="168">
       <c r="A184" s="4">
@@ -4389,9 +3653,6 @@
       <c r="B184" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C184" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="185" spans="1:2" ht="51">
       <c r="A185" s="4">
@@ -4400,9 +3661,6 @@
       <c r="B185" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C185" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="186" spans="1:2" ht="135">
       <c r="A186" s="4">
@@ -4411,9 +3669,6 @@
       <c r="B186" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C186" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="187" spans="1:2" ht="168">
       <c r="A187" s="4">
@@ -4422,9 +3677,6 @@
       <c r="B187" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C187" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="188" spans="1:2" ht="286">
       <c r="A188" s="4">
@@ -4433,9 +3685,6 @@
       <c r="B188" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C188" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="189" spans="1:2" ht="101">
       <c r="A189" s="4">
@@ -4444,9 +3693,6 @@
       <c r="B189" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C189" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="190" spans="1:2" ht="135">
       <c r="A190" s="4">
@@ -4455,9 +3701,6 @@
       <c r="B190" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C190" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="191" spans="1:2" ht="409.5">
       <c r="A191" s="4">
@@ -4466,9 +3709,6 @@
       <c r="B191" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C191" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="192" spans="1:2" ht="185">
       <c r="A192" s="4">
@@ -4477,9 +3717,6 @@
       <c r="B192" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C192" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="193" spans="1:2" ht="135">
       <c r="A193" s="4">
@@ -4488,9 +3725,6 @@
       <c r="B193" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C193" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="194" spans="1:2" ht="320">
       <c r="A194" s="4">
@@ -4499,9 +3733,6 @@
       <c r="B194" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C194" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="195" spans="1:2" ht="135">
       <c r="A195" s="4">
@@ -4510,9 +3741,6 @@
       <c r="B195" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C195" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="196" spans="1:2" ht="51">
       <c r="A196" s="4">
@@ -4521,9 +3749,6 @@
       <c r="B196" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C196" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="197" spans="1:2" ht="84">
       <c r="A197" s="4">
@@ -4532,9 +3757,6 @@
       <c r="B197" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C197" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="198" spans="1:2" ht="34">
       <c r="A198" s="4">
@@ -4543,9 +3765,6 @@
       <c r="B198" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C198" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="199" spans="1:2" ht="84">
       <c r="A199" s="4">
@@ -4554,9 +3773,6 @@
       <c r="B199" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C199" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="200" spans="1:2" ht="387">
       <c r="A200" s="4">
@@ -4565,9 +3781,6 @@
       <c r="B200" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C200" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="201" spans="1:2" ht="101">
       <c r="A201" s="4">
@@ -4576,9 +3789,6 @@
       <c r="B201" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C201" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="202" spans="1:2" ht="118">
       <c r="A202" s="4">
@@ -4587,9 +3797,6 @@
       <c r="B202" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C202" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="203" spans="1:2" ht="152">
       <c r="A203" s="4">
@@ -4598,9 +3805,6 @@
       <c r="B203" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C203" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="204" spans="1:2" ht="51">
       <c r="A204" s="4">
@@ -4609,9 +3813,6 @@
       <c r="B204" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C204" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="205" spans="1:2" ht="101">
       <c r="A205" s="4">
@@ -4620,9 +3821,6 @@
       <c r="B205" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C205" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="206" spans="1:2" ht="51">
       <c r="A206" s="4">
@@ -4631,9 +3829,6 @@
       <c r="B206" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C206" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="207" spans="1:2" ht="303">
       <c r="A207" s="4">
@@ -4642,9 +3837,6 @@
       <c r="B207" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C207" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="208" spans="1:2" ht="409.5">
       <c r="A208" s="4">
@@ -4653,9 +3845,6 @@
       <c r="B208" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C208" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="209" spans="1:2" ht="135">
       <c r="A209" s="4">
@@ -4664,9 +3853,6 @@
       <c r="B209" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C209" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="210" spans="1:2" ht="135">
       <c r="A210" s="4">
@@ -4675,9 +3861,6 @@
       <c r="B210" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C210" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="211" spans="1:2" ht="68">
       <c r="A211" s="4">
@@ -4686,9 +3869,6 @@
       <c r="B211" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C211" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="212" spans="1:2" ht="135">
       <c r="A212" s="4">
@@ -4697,9 +3877,6 @@
       <c r="B212" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C212" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="213" spans="1:2" ht="51">
       <c r="A213" s="4">
@@ -4708,9 +3885,6 @@
       <c r="B213" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C213" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="214" spans="1:2" ht="152">
       <c r="A214" s="4">
@@ -4719,9 +3893,6 @@
       <c r="B214" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C214" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="215" spans="1:2" ht="68">
       <c r="A215" s="4">
@@ -4730,9 +3901,6 @@
       <c r="B215" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C215" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="216" spans="1:2" ht="185">
       <c r="A216" s="4">
@@ -4741,9 +3909,6 @@
       <c r="B216" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C216" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="217" spans="1:2" ht="68">
       <c r="A217" s="4">
@@ -4752,9 +3917,6 @@
       <c r="B217" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C217" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="218" spans="1:2" ht="101">
       <c r="A218" s="4">
@@ -4763,9 +3925,6 @@
       <c r="B218" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C218" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="219" spans="1:2" ht="152">
       <c r="A219" s="4">
@@ -4774,9 +3933,6 @@
       <c r="B219" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C219" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="220" spans="1:2" ht="118">
       <c r="A220" s="4">
@@ -4785,9 +3941,6 @@
       <c r="B220" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C220" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="221" spans="1:2" ht="34">
       <c r="A221" s="4">
@@ -4796,9 +3949,6 @@
       <c r="B221" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C221" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="222" spans="1:2" ht="303">
       <c r="A222" s="4">
@@ -4807,9 +3957,6 @@
       <c r="B222" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C222" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="223" spans="1:2" ht="118">
       <c r="A223" s="4">
@@ -4817,9 +3964,6 @@
       </c>
       <c r="B223" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="C223" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="16.8">
